--- a/DateBase/orders/Nha Thu_2025-8-7.xlsx
+++ b/DateBase/orders/Nha Thu_2025-8-7.xlsx
@@ -606,6 +606,9 @@
       <c r="C21" t="str">
         <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -667,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02515101515208201010105551510510150</v>
+        <v>02515101515208201010105551510510157</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-8-7.xlsx
+++ b/DateBase/orders/Nha Thu_2025-8-7.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -610,9 +610,28 @@
         <v>7</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>4</v>
+      </c>
+      <c r="C22" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>798_朱玉大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L23"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -670,7 +689,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02515101515208201010105551510510157</v>
+        <v>0251510151520820101010555151051015755</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-8-7.xlsx
+++ b/DateBase/orders/Nha Thu_2025-8-7.xlsx
@@ -691,6 +691,9 @@
       <c r="G2" t="str">
         <v>0251510151520820101010555151051015755</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
